--- a/Data/Actual Contracts.xlsx
+++ b/Data/Actual Contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Documents/GitHub/nba-free-agency-dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748C1DBC-E8F7-9649-B45E-2FA47D470DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47AF02-4D5A-C949-B760-73E80B65C306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{D5EB5F4A-B7C8-DC4C-BF95-EDD08D7C3D00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>player</t>
   </si>
@@ -53,6 +53,174 @@
   </si>
   <si>
     <t>Total Value</t>
+  </si>
+  <si>
+    <t>Tomáš Satoranský</t>
+  </si>
+  <si>
+    <t>https://www.eurohoops.net/en/euroleague/1362062/barcelona-adds-tomas-satoransky-euroleague/</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1541891277104594944</t>
+  </si>
+  <si>
+    <t>https://twitter.com/KellyIkoNBA/status/1542629050652545024</t>
+  </si>
+  <si>
+    <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1542629301220171777</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542629367779565569</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1542629527624482817</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>https://twitter.com/chrisbhaynes/status/1542629453381062657</t>
+  </si>
+  <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542629899676049410</t>
+  </si>
+  <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542630211660963840</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>https://twitter.com/chrisbhaynes/status/1542630611629666304</t>
+  </si>
+  <si>
+    <t>Danuel House</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542631205874671617</t>
+  </si>
+  <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
+    <t>https://twitter.com/chrisbhaynes/status/1542630981823127552</t>
+  </si>
+  <si>
+    <t>Mo Bamba</t>
+  </si>
+  <si>
+    <t>https://twitter.com/chrisbhaynes/status/1542631403300392960</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542631954247450627</t>
+  </si>
+  <si>
+    <t>Amir Coffey</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542633008770990085</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1542633146688176128</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542633124919709704</t>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1542632675315531776</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>https://twitter.com/renaeingles/status/1542631752963063808</t>
+  </si>
+  <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542633812194123776</t>
+  </si>
+  <si>
+    <t>Davon Reed</t>
+  </si>
+  <si>
+    <t>https://twitter.com/msinger/status/1542633240330063872</t>
+  </si>
+  <si>
+    <t>Luguentz Dort</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542634040129470464</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1542635437918912512</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChrisBHaynes/status/1542636272920846337</t>
+  </si>
+  <si>
+    <t>Trevelin Queen</t>
+  </si>
+  <si>
+    <t>https://twitter.com/chrisbhaynes/status/1542637004390662145</t>
+  </si>
+  <si>
+    <t>https://twitter.com/chrisbhaynes/status/1542641508196552709</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III</t>
+  </si>
+  <si>
+    <t>Jae'Sean Tate</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1542643237139234816</t>
+  </si>
+  <si>
+    <t>Patty Mills</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1542642604617220096</t>
   </si>
 </sst>
 </file>
@@ -62,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,9 +239,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -94,18 +290,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,54 +626,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA8F1EC-D3D3-CE44-995D-42013DD36BD4}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C2" s="5"/>
-      <c r="D2" s="1">
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
         <f>IF(B2=0,0,C2*0.05/((1.05)^B2-1)/122000000)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
+      <c r="E2" s="11">
+        <v>44738</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>33000000</v>
+      </c>
+      <c r="D3" s="14">
+        <f>IF(B3=0,0,C3*0.05/((1.05)^B3-1)/123655000)</f>
+        <v>8.4653937429388842E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>44740</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>16700000</v>
+      </c>
+      <c r="D4" s="14">
+        <f>IF(B4=0,0,C4*0.05/((1.05)^B4-1)/123655000)</f>
+        <v>6.5879596162020396E-2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>11000000</v>
+      </c>
+      <c r="D5" s="14">
+        <f>IF(B5=0,0,C5*0.05/((1.05)^B5-1)/123655000)</f>
+        <v>8.8957179248716114E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>251000000</v>
+      </c>
+      <c r="D6" s="14">
+        <f>IF(B6=0,0,C6*0.05/((1.05)^B6-1)/123655000)</f>
+        <v>0.36735008151870352</v>
+      </c>
+      <c r="E6" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>33200000</v>
+      </c>
+      <c r="D7" s="10">
+        <f>IF(B7=0,0,C7*0.05/((1.05)^B7-1)/123655000)</f>
+        <v>8.5166991595627559E-2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>22000000</v>
+      </c>
+      <c r="D8" s="10">
+        <f>IF(B8=0,0,C8*0.05/((1.05)^B8-1)/123655000)</f>
+        <v>8.6787491949966974E-2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="D9" s="10">
+        <f>IF(B9=0,0,C9*0.05/((1.05)^B9-1)/123655000)</f>
+        <v>0.18762834709753973</v>
+      </c>
+      <c r="E9" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>49000000</v>
+      </c>
+      <c r="D10" s="10">
+        <f>IF(B10=0,0,C10*0.05/((1.05)^B10-1)/123655000)</f>
+        <v>9.1937890077794474E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9">
+        <v>104000000</v>
+      </c>
+      <c r="D11" s="10">
+        <f>IF(B11=0,0,C11*0.05/((1.05)^B11-1)/123655000)</f>
+        <v>0.19513348098144132</v>
+      </c>
+      <c r="E11" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8500000</v>
+      </c>
+      <c r="D12" s="10">
+        <f>IF(B12=0,0,C12*0.05/((1.05)^B12-1)/123655000)</f>
+        <v>3.3531530980669064E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>19000000</v>
+      </c>
+      <c r="D13" s="10">
+        <f>IF(B13=0,0,C13*0.05/((1.05)^B13-1)/123655000)</f>
+        <v>7.4952833956789672E-2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>21000000</v>
+      </c>
+      <c r="D14" s="10">
+        <f>IF(B14=0,0,C14*0.05/((1.05)^B14-1)/123655000)</f>
+        <v>8.2842605952241216E-2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="D15" s="10">
+        <f>IF(B15=0,0,C15*0.05/((1.05)^B15-1)/123655000)</f>
+        <v>0.11834657993177315</v>
+      </c>
+      <c r="E15" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>11000000</v>
+      </c>
+      <c r="D16" s="10">
+        <f>IF(B16=0,0,C16*0.05/((1.05)^B16-1)/123655000)</f>
+        <v>2.8217979143129616E-2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10">
+        <f>IF(B17=0,0,C17*0.05/((1.05)^B17-1)/123655000)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10">
+        <f>IF(B18=0,0,C18*0.05/((1.05)^B18-1)/123655000)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <f>IF(B19=0,0,C19*0.05/((1.05)^B19-1)/123655000)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10">
+        <f>IF(B20=0,0,C20*0.05/((1.05)^B20-1)/123655000)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>35250000</v>
+      </c>
+      <c r="D21" s="10">
+        <f>IF(B21=0,0,C21*0.05/((1.05)^B21-1)/123655000)</f>
+        <v>9.0425796799574465E-2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10">
+        <f>IF(B22=0,0,C22*0.05/((1.05)^B22-1)/123655000)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
+        <v>87500000</v>
+      </c>
+      <c r="D23" s="10">
+        <f>IF(B23=0,0,C23*0.05/((1.05)^B23-1)/123655000)</f>
+        <v>0.12806028738201816</v>
+      </c>
+      <c r="E23" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="D24" s="10">
+        <f>IF(B24=0,0,C24*0.05/((1.05)^B24-1)/123655000)</f>
+        <v>3.5503973979531943E-2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>16000000</v>
+      </c>
+      <c r="D25" s="10">
+        <f>IF(B25=0,0,C25*0.05/((1.05)^B25-1)/123655000)</f>
+        <v>6.3118175963612355E-2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3300000</v>
+      </c>
+      <c r="D26" s="10">
+        <f>IF(B26=0,0,C26*0.05/((1.05)^B26-1)/123655000)</f>
+        <v>1.3018123792495047E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
+        <v>37000000</v>
+      </c>
+      <c r="D27" s="10">
+        <f>IF(B27=0,0,C27*0.05/((1.05)^B27-1)/123655000)</f>
+        <v>9.4915020754163248E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>22100000</v>
+      </c>
+      <c r="D28" s="10">
+        <f>IF(B28=0,0,C28*0.05/((1.05)^B28-1)/123655000)</f>
+        <v>5.6692485369378591E-2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>14500000</v>
+      </c>
+      <c r="D29" s="10">
+        <f>IF(B29=0,0,C29*0.05/((1.05)^B29-1)/123655000)</f>
+        <v>5.7200846967023697E-2</v>
+      </c>
+      <c r="E29" s="11">
+        <v>44742</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{C3A5E99E-D0B1-4D46-ADEB-0A57B7498AE3}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{75F70002-3221-B24A-AE2E-6C4F19480D50}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{37D73035-61F7-D74C-87CA-EFA4B20832B8}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{B52C45E4-8021-814C-95C7-8918D60C265B}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{1D79EC75-BA0C-4546-AAAF-80FDFF73E73F}"/>
+    <hyperlink ref="F20" r:id="rId6" xr:uid="{0F98F172-ACCA-264A-B34B-B611924F1FC2}"/>
+    <hyperlink ref="F22" r:id="rId7" xr:uid="{3C4144B9-5422-7E4F-B062-F41E5E8AF6DC}"/>
+    <hyperlink ref="F27" r:id="rId8" xr:uid="{765A25ED-DD48-294C-AE40-6392AE888EAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Actual Contracts.xlsx
+++ b/Data/Actual Contracts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Documents/GitHub/nba-free-agency-dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCBB9AE-842C-464B-A8A3-AE968C1BEE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C0E5D0-7C98-9343-924A-08E74BE76FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{D5EB5F4A-B7C8-DC4C-BF95-EDD08D7C3D00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="216">
   <si>
     <t>player</t>
   </si>
@@ -551,6 +551,138 @@
   </si>
   <si>
     <t>https://www.hoopsrumors.com/2022/07/bucks-re-sign-lindell-wigginton.html</t>
+  </si>
+  <si>
+    <t>Admiral Schofield</t>
+  </si>
+  <si>
+    <t>https://twitter.com/khobi_price/status/1550640034524569605</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MikeAScotto/status/1550658307089747968</t>
+  </si>
+  <si>
+    <t>Quinndary Weatherspoon</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1549893084011446274</t>
+  </si>
+  <si>
+    <t>Austin Rivers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1547755783248482305</t>
+  </si>
+  <si>
+    <t>Taj Gibson</t>
+  </si>
+  <si>
+    <t>Markus Howard</t>
+  </si>
+  <si>
+    <t>https://basketnews.com/news-175274-baskonia-add-scoring-machine-markus-howard.html</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1545520356978348032</t>
+  </si>
+  <si>
+    <t>Ish Wainright</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1554938998040285185</t>
+  </si>
+  <si>
+    <t>Duane Washington Jr.</t>
+  </si>
+  <si>
+    <t>Norvel Pelle</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1554979370938376193</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1554634440151908354</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DWolfsonKSTP/status/1553089641468907521</t>
+  </si>
+  <si>
+    <t>Eric Paschall</t>
+  </si>
+  <si>
+    <t>https://twitter.com/JonKrawczynski/status/1554536357321756674</t>
+  </si>
+  <si>
+    <t>CJ Elleby</t>
+  </si>
+  <si>
+    <t>Juancho Hernangómez</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1551964600479977475</t>
+  </si>
+  <si>
+    <t>Jay Huff</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Lakers/status/1552383518449094656</t>
+  </si>
+  <si>
+    <t>Aaron Henry</t>
+  </si>
+  <si>
+    <t>https://www.basketeurope.com/livenews-fr/618084/lailier-aaron-henry-a-signe-a-boulogne-levallois/</t>
+  </si>
+  <si>
+    <t>Ahmad Caver</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wolves_bc/status/1555821355182047232</t>
+  </si>
+  <si>
+    <t>https://www.eurohoops.net/en/eurocup/1365105/arnoldas-kulboka-pens-one-year-deal-with-promitheas/</t>
+  </si>
+  <si>
+    <t>Arnoldas Kulboka</t>
+  </si>
+  <si>
+    <t>Carlik Jones</t>
+  </si>
+  <si>
+    <t>https://twitter.com/carlikjones/status/1559638319562194944</t>
+  </si>
+  <si>
+    <t>https://www.eurohoops.net/en/euroleague/1373783/carsen-edwards-officially-announced-by-fenerbahce/</t>
+  </si>
+  <si>
+    <t>Carsen Edwards</t>
+  </si>
+  <si>
+    <t>https://basketnews.com/news-175750-cassius-winston-is-heading-to-bayern-munich.html</t>
+  </si>
+  <si>
+    <t>Cassius Winston</t>
+  </si>
+  <si>
+    <t>https://fcbayern.com/basketball/en/news/2022-23/07/gillespie-til-24</t>
+  </si>
+  <si>
+    <t>Freddie Gillespie</t>
+  </si>
+  <si>
+    <t>https://www.eurohoops.net/en/euroleague/1371902/zalgiris-kaunas-announced-the-addition-of-ignas-brazdeikis/</t>
+  </si>
+  <si>
+    <t>Ignas Brazdeikis</t>
+  </si>
+  <si>
+    <t>Isaac Bonga</t>
+  </si>
+  <si>
+    <t>https://fcbayern.com/basketball/en/news/2022-23/08/bonga-2024</t>
   </si>
 </sst>
 </file>
@@ -952,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA8F1EC-D3D3-CE44-995D-42013DD36BD4}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1031,340 +1163,340 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>68600000</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27061917944398794</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44762</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>132930000</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24941436179675958</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44756</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C6" s="3">
         <v>104000000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0.19513348098144132</v>
       </c>
-      <c r="E4" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E6" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C7" s="3">
         <v>100000000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>0.18762834709753973</v>
       </c>
-      <c r="E5" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E7" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C8" s="3">
         <v>70000000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>0.1313398429682778</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E8" s="5">
         <v>44743</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C9" s="3">
         <v>82500000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>0.12074255667447426</v>
       </c>
-      <c r="E7" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E9" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="3">
         <v>29000000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>0.11440169393404739</v>
       </c>
-      <c r="E8" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E10" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C11" s="3">
         <v>60000000</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>0.11257700825852383</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E11" s="5">
         <v>44743</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="3">
         <v>26000000</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>0.10256703594087006</v>
       </c>
-      <c r="E10" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E12" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="3">
         <v>37000000</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>9.4915020754163248E-2</v>
       </c>
-      <c r="E11" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E13" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C14" s="3">
         <v>48580000</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>9.1149851019984809E-2</v>
       </c>
-      <c r="E12" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E14" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C15" s="3">
         <v>35250000</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>9.0425796799574465E-2</v>
       </c>
-      <c r="E13" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E15" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="3">
         <v>22550000</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>8.8957179248716156E-2</v>
       </c>
-      <c r="E14" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E16" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>18000000</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>7.1007947959063886E-2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>33200000</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>8.5166991595627559E-2</v>
       </c>
-      <c r="E16" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E17" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>33000000</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>8.4653937429388842E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>44740</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>20600000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>8.1264651553150907E-2</v>
       </c>
-      <c r="E18" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E19" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>17250000</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>6.8049283460769563E-2</v>
-      </c>
-      <c r="E19" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,9 +1520,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -1405,1231 +1537,1252 @@
       <c r="E21" s="5">
         <v>44742</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F21" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>26150000</v>
+        <v>18000000</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
-        <v>6.708183223571268E-2</v>
+        <v>7.1007947959063886E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>44749</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>155</v>
+        <v>44742</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>16700000</v>
+        <v>17250000</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
-        <v>6.5879596162020396E-2</v>
+        <v>6.8049283460769563E-2</v>
       </c>
       <c r="E23" s="5">
         <v>44742</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="3">
+        <v>26150000</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>6.708183223571268E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>44749</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>16700000</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>6.5879596162020396E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
         <v>25500000</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>6.5414406195436842E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>44743</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>16000000</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D27" s="7">
         <f t="shared" si="0"/>
         <v>6.3118175963612355E-2</v>
       </c>
-      <c r="E25" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E27" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C28" s="3">
         <v>16000000</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D28" s="7">
         <f t="shared" si="0"/>
         <v>6.3118175963612355E-2</v>
       </c>
-      <c r="E26" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E28" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>16000000</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>6.3118175963612355E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E29" s="5">
         <v>44740</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>31360000</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>5.8840249649788463E-2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E30" s="5">
         <v>44749</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>14500000</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D31" s="7">
         <f t="shared" si="0"/>
         <v>5.7200846967023697E-2</v>
       </c>
-      <c r="E29" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E31" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C32" s="3">
         <v>22100000</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D32" s="7">
         <f t="shared" si="0"/>
         <v>5.6692485369378591E-2</v>
       </c>
-      <c r="E30" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E32" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B33" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C33" s="3">
         <v>20500000</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>5.2588052039468834E-2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E33" s="5">
         <v>44748</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6500000</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>5.2565605919695883E-2</v>
-      </c>
-      <c r="E32" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6500000</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>5.2565605919695883E-2</v>
-      </c>
-      <c r="E33" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
-        <v>13280000</v>
+        <v>6500000</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" ref="D34:D65" si="1">IF(B34=0,0,C34*0.05/((1.05)^B34-1)/123655000)</f>
-        <v>5.2388086049798249E-2</v>
+        <v>5.2565605919695883E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>44743</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>90</v>
+        <v>44742</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>20100000</v>
+        <v>6500000</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="1"/>
-        <v>5.1561943706991388E-2</v>
+        <v>5.2565605919695883E-2</v>
       </c>
       <c r="E35" s="5">
         <v>44742</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="3">
+        <v>13280000</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>5.2388086049798249E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>44743</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20100000</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="1"/>
+        <v>5.1561943706991388E-2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
         <v>13000000</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D38" s="4">
         <f t="shared" si="1"/>
         <v>5.1283517970435032E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E38" s="5">
         <v>44743</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C39" s="3">
         <v>12300000</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D39" s="7">
         <f t="shared" si="1"/>
         <v>4.8522097772026998E-2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E39" s="5">
         <v>44745</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B40" s="2">
         <v>3</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C40" s="3">
         <v>18440000</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D40" s="7">
         <f t="shared" si="1"/>
         <v>4.7303594127210011E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E40" s="5">
         <v>44743</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B41" s="2">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C41" s="3">
         <v>15100000</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D41" s="4">
         <f t="shared" si="1"/>
         <v>3.8735589551023381E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E41" s="5">
         <v>44743</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C42" s="3">
         <v>9230000</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D42" s="4">
         <f t="shared" si="1"/>
         <v>3.6411297759008872E-2</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E42" s="5">
         <v>44743</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B43" s="2">
         <v>2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C43" s="3">
         <v>9000000</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D43" s="7">
         <f t="shared" si="1"/>
         <v>3.5503973979531943E-2</v>
       </c>
-      <c r="E41" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="E43" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B44" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C44" s="3">
         <v>8420000</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D44" s="7">
         <f t="shared" si="1"/>
         <v>3.3215940100851001E-2</v>
       </c>
-      <c r="E42" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="E44" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B45" s="2">
         <v>3</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C45" s="3">
         <v>11000000</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D45" s="7">
         <f t="shared" si="1"/>
         <v>2.8217979143129616E-2</v>
       </c>
-      <c r="E43" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E45" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B46" s="2">
         <v>2</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C46" s="3">
         <v>6600000</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D46" s="4">
         <f t="shared" si="1"/>
         <v>2.6036247584990093E-2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E46" s="5">
         <v>44743</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C47" s="3">
         <v>6600000</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D47" s="7">
         <f t="shared" si="1"/>
         <v>2.6036247584990093E-2</v>
       </c>
-      <c r="E45" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="E47" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B48" s="2">
         <v>2</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C48" s="3">
         <v>6000000</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D48" s="7">
         <f t="shared" si="1"/>
         <v>2.366931598635463E-2</v>
       </c>
-      <c r="E46" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="E48" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C49" s="3">
         <v>2910000</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D49" s="4">
         <f t="shared" si="1"/>
         <v>2.3533217419433077E-2</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E49" s="5">
         <v>44743</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C50" s="3">
         <v>2910000</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D50" s="7">
         <f t="shared" si="1"/>
         <v>2.3533217419433077E-2</v>
       </c>
-      <c r="E48" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="E50" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3533217419433077E-2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>44746</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3533217419433077E-2</v>
+      </c>
+      <c r="E52" s="5">
+        <v>44756</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3533217419433077E-2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>44750</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C54" s="3">
         <v>2900000</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D54" s="7">
         <f t="shared" si="1"/>
         <v>2.34523472564797E-2</v>
       </c>
-      <c r="E49" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F49" s="6" t="s">
+      <c r="E54" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C55" s="3">
         <v>2900000</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D55" s="4">
         <f t="shared" si="1"/>
         <v>2.34523472564797E-2</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E55" s="5">
         <v>44744</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B56" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C56" s="3">
         <v>2900000</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D56" s="4">
         <f t="shared" si="1"/>
         <v>2.34523472564797E-2</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E56" s="5">
         <v>44745</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B57" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C57" s="3">
         <v>2640000</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D57" s="7">
         <f t="shared" si="1"/>
         <v>2.1349723019691867E-2</v>
       </c>
-      <c r="E52" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="E57" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C58" s="3">
         <v>2460000</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D58" s="4">
         <f t="shared" si="1"/>
         <v>1.9894060086531055E-2</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E58" s="5">
         <v>44743</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2460000</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9894060086531055E-2</v>
+      </c>
+      <c r="E59" s="5">
+        <v>44750</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B60" s="2">
         <v>2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C60" s="3">
         <v>4720000</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D60" s="7">
         <f t="shared" si="1"/>
         <v>1.8619861909265643E-2</v>
       </c>
-      <c r="E54" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="E60" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8600137479277006E-2</v>
+      </c>
+      <c r="E61" s="5">
+        <v>44768</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4550000</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7949231289652263E-2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>44743</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4550000</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7949231289652263E-2</v>
+      </c>
+      <c r="E63" s="5">
+        <v>44750</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B64" s="2">
         <v>3</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C64" s="3">
         <v>6820000</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D64" s="4">
         <f t="shared" si="1"/>
         <v>1.749514706874036E-2</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E64" s="5">
         <v>44749</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3">
-        <v>4550000</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7949231289652263E-2</v>
-      </c>
-      <c r="E56" s="5">
-        <v>44743</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3">
-        <v>4340000</v>
-      </c>
-      <c r="D57" s="7">
-        <f t="shared" si="1"/>
-        <v>1.7120805230129849E-2</v>
-      </c>
-      <c r="E57" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2100000</v>
-      </c>
-      <c r="D58" s="4">
-        <f t="shared" si="1"/>
-        <v>1.698273422020944E-2</v>
-      </c>
-      <c r="E58" s="5">
-        <v>44744</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="D59" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6174032590675656E-2</v>
-      </c>
-      <c r="E59" s="5">
-        <v>44744</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2</v>
-      </c>
-      <c r="C60" s="3">
-        <v>3970000</v>
-      </c>
-      <c r="D60" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5661197410971314E-2</v>
-      </c>
-      <c r="E60" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1970000</v>
-      </c>
-      <c r="D61" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5931422101815518E-2</v>
-      </c>
-      <c r="E61" s="5">
-        <v>44743</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1970000</v>
-      </c>
-      <c r="D62" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5931422101815518E-2</v>
-      </c>
-      <c r="E62" s="5">
-        <v>44743</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1970000</v>
-      </c>
-      <c r="D63" s="4">
-        <f t="shared" si="1"/>
-        <v>1.5931422101815518E-2</v>
-      </c>
-      <c r="E63" s="5">
-        <v>44743</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1970000</v>
-      </c>
-      <c r="D64" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5931422101815518E-2</v>
-      </c>
-      <c r="E64" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2133278</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="1"/>
+        <v>1.725185394848569E-2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>44748</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="2">
         <v>2</v>
       </c>
-      <c r="C65" s="3">
-        <v>3970000</v>
-      </c>
-      <c r="D65" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5661197410971314E-2</v>
-      </c>
-      <c r="E65" s="5">
-        <v>44743</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3</v>
-      </c>
       <c r="C66" s="3">
-        <v>6000000</v>
-      </c>
-      <c r="D66" s="4">
-        <f t="shared" ref="D66:D85" si="2">IF(B66=0,0,C66*0.05/((1.05)^B66-1)/123655000)</f>
-        <v>1.5391624987161609E-2</v>
+        <v>4340000</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" ref="D66:D107" si="2">IF(B66=0,0,C66*0.05/((1.05)^B66-1)/123655000)</f>
+        <v>1.7120805230129849E-2</v>
       </c>
       <c r="E66" s="5">
-        <v>44745</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>141</v>
+        <v>44742</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>1900000</v>
-      </c>
-      <c r="D67" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5365330961141874E-2</v>
+        <v>2100000</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="2"/>
+        <v>1.698273422020944E-2</v>
       </c>
       <c r="E67" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>44744</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3">
-        <v>3570000</v>
+        <v>2000000</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" si="2"/>
-        <v>1.4083243011881005E-2</v>
+        <v>1.6174032590675656E-2</v>
       </c>
       <c r="E68" s="5">
-        <v>44748</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>153</v>
+        <v>44744</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="3">
-        <v>3440000</v>
+        <v>1970000</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="2"/>
-        <v>1.3570407832176655E-2</v>
+        <v>1.5931422101815518E-2</v>
       </c>
       <c r="E69" s="5">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5931422101815518E-2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>44743</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5931422101815518E-2</v>
+      </c>
+      <c r="E71" s="5">
+        <v>44743</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5931422101815518E-2</v>
+      </c>
+      <c r="E72" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="2">
         <v>2</v>
       </c>
-      <c r="C70" s="3">
-        <v>3300000</v>
-      </c>
-      <c r="D70" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3018123792495047E-2</v>
-      </c>
-      <c r="E70" s="5">
-        <v>44742</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-      <c r="D71" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="5">
-        <v>44738</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="2">
-        <v>0</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="C73" s="3">
+        <v>3970000</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5661197410971314E-2</v>
+      </c>
+      <c r="E73" s="5">
+        <v>44742</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3970000</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5661197410971314E-2</v>
+      </c>
+      <c r="E74" s="5">
         <v>44743</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="5">
-        <v>44744</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="5">
-        <v>44744</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>136</v>
+      <c r="F74" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C75" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5391624987161609E-2</v>
       </c>
       <c r="E75" s="5">
-        <v>44748</v>
+        <v>44745</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
       </c>
+      <c r="C76" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5365330961141874E-2</v>
+      </c>
       <c r="E76" s="5">
-        <v>44746</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>146</v>
+        <v>44742</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C77" s="3">
+        <v>3570000</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4083243011881005E-2</v>
       </c>
       <c r="E77" s="5">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" s="3">
-        <v>2460000</v>
+        <v>3570000</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" si="2"/>
-        <v>1.9894060086531055E-2</v>
+        <v>1.4083243011881005E-2</v>
       </c>
       <c r="E78" s="5">
-        <v>44750</v>
+        <v>44756</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="B79" s="2">
         <v>2</v>
       </c>
       <c r="C79" s="3">
-        <v>4550000</v>
-      </c>
-      <c r="D79" s="4">
-        <f t="shared" si="2"/>
-        <v>1.7949231289652263E-2</v>
+        <v>3440000</v>
+      </c>
+      <c r="D79" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3570407832176655E-2</v>
       </c>
       <c r="E79" s="5">
-        <v>44750</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>161</v>
+        <v>44742</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="B80" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C80" s="3">
-        <v>0</v>
-      </c>
-      <c r="D80" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3300000</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3018123792495047E-2</v>
       </c>
       <c r="E80" s="5">
-        <v>44750</v>
+        <v>44742</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -2637,20 +2790,20 @@
       <c r="C81" s="3">
         <v>0</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E81" s="5">
-        <v>44751</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>165</v>
+        <v>44738</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -2663,120 +2816,586 @@
         <v>0</v>
       </c>
       <c r="E82" s="5">
-        <v>44751</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>164</v>
+        <v>44743</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>44744</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>44744</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>44750</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>44751</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>44751</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="2">
-        <v>0</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="5">
+      <c r="B88" s="2">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
         <v>44751</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F88" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" s="2">
-        <v>4</v>
-      </c>
-      <c r="C84" s="3">
-        <v>132930000</v>
-      </c>
-      <c r="D84" s="4">
-        <f t="shared" si="2"/>
-        <v>0.24941436179675958</v>
-      </c>
-      <c r="E84" s="5">
-        <v>44756</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="2">
-        <v>2</v>
-      </c>
-      <c r="C85" s="3">
-        <v>3570000</v>
-      </c>
-      <c r="D85" s="4">
-        <f t="shared" si="2"/>
-        <v>1.4083243011881005E-2</v>
-      </c>
-      <c r="E85" s="5">
-        <v>44756</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>169</v>
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>44764</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>44764</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>44758</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>44776</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="5">
+        <v>44775</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="5">
+        <v>44776</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="5">
+        <v>44771</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="5">
+        <v>44775</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="5">
+        <v>44769</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>44747</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>44779</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>44779</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>44746</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="5">
+        <v>44789</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>44773</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>44769</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>44767</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="5">
+        <v>44766</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>44792</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F77">
-    <sortCondition descending="1" ref="D1:D77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F98">
+    <sortCondition descending="1" ref="D1:D98"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{C3A5E99E-D0B1-4D46-ADEB-0A57B7498AE3}"/>
-    <hyperlink ref="F23" r:id="rId2" xr:uid="{75F70002-3221-B24A-AE2E-6C4F19480D50}"/>
-    <hyperlink ref="F14" r:id="rId3" xr:uid="{37D73035-61F7-D74C-87CA-EFA4B20832B8}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{B52C45E4-8021-814C-95C7-8918D60C265B}"/>
-    <hyperlink ref="F18" r:id="rId5" xr:uid="{1D79EC75-BA0C-4546-AAAF-80FDFF73E73F}"/>
-    <hyperlink ref="F32" r:id="rId6" xr:uid="{0F98F172-ACCA-264A-B34B-B611924F1FC2}"/>
-    <hyperlink ref="F60" r:id="rId7" xr:uid="{3C4144B9-5422-7E4F-B062-F41E5E8AF6DC}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{765A25ED-DD48-294C-AE40-6392AE888EAC}"/>
-    <hyperlink ref="F22" r:id="rId9" xr:uid="{0BB063F2-77D4-F747-A271-23658F542011}"/>
-    <hyperlink ref="F52" r:id="rId10" xr:uid="{4D8E368E-05CE-104E-9C12-C11DD60E5851}"/>
-    <hyperlink ref="F38" r:id="rId11" xr:uid="{F36FB0B6-5542-3C45-BD26-33EEB283819C}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{E8A15058-33EE-C841-9B0C-631D926C9C86}"/>
-    <hyperlink ref="F62" r:id="rId13" xr:uid="{F2E4C554-CC8D-6E48-B5ED-E0A335A8A907}"/>
-    <hyperlink ref="F48" r:id="rId14" xr:uid="{BC6D13BC-7BBC-AE43-A710-998DAE9273EC}"/>
-    <hyperlink ref="F64" r:id="rId15" xr:uid="{930B885A-D047-C24C-B8EB-6C0225A55DCB}"/>
-    <hyperlink ref="F67" r:id="rId16" xr:uid="{6995278F-70F2-9A47-91DF-3FE3B3AE01A6}"/>
-    <hyperlink ref="F47" r:id="rId17" xr:uid="{9E174051-796A-AD40-ABF7-5BE91A92C149}"/>
-    <hyperlink ref="F63" r:id="rId18" xr:uid="{99119875-7291-BC49-A36F-FB2420DA8FC2}"/>
-    <hyperlink ref="F65" r:id="rId19" xr:uid="{A0400BCA-E038-AD42-8527-39DF2E5FC376}"/>
-    <hyperlink ref="F53" r:id="rId20" xr:uid="{EC425C9D-2E08-BE48-A961-1D443B97EE19}"/>
-    <hyperlink ref="F56" r:id="rId21" xr:uid="{466BA372-33B3-A14F-A61E-9244E6529A90}"/>
-    <hyperlink ref="F39" r:id="rId22" xr:uid="{41F973EB-FA35-7A43-8A76-F3320C219913}"/>
-    <hyperlink ref="F73" r:id="rId23" xr:uid="{AAC62DE2-D98A-B140-AF5A-C5D625E5499E}"/>
-    <hyperlink ref="F37" r:id="rId24" xr:uid="{99CB87BC-15DF-1644-A07E-B49114A6F4A8}"/>
-    <hyperlink ref="F66" r:id="rId25" xr:uid="{FAF9C698-6A2A-0143-95AB-4D44BB62D68F}"/>
-    <hyperlink ref="F31" r:id="rId26" xr:uid="{37BF6940-3B93-1541-9FD0-F32C0D0EC565}"/>
-    <hyperlink ref="F75" r:id="rId27" xr:uid="{B4B4B032-5D70-DA4B-8F37-948952DD5C60}"/>
-    <hyperlink ref="F76" r:id="rId28" xr:uid="{A6E45E52-CA03-7A48-8DEF-8D25EE1AAA5D}"/>
-    <hyperlink ref="F77" r:id="rId29" xr:uid="{C79D7032-71D5-2646-854F-C8B3D69DF869}"/>
-    <hyperlink ref="F55" r:id="rId30" xr:uid="{9DEC38C0-28D6-F345-B114-6F8B270ACDBE}"/>
-    <hyperlink ref="F68" r:id="rId31" xr:uid="{25CF2624-9C86-9148-9AF6-B6ECC8C8ED16}"/>
-    <hyperlink ref="F28" r:id="rId32" xr:uid="{E335580F-71A7-6A46-8766-FD826ED18E58}"/>
-    <hyperlink ref="F15" r:id="rId33" xr:uid="{66DBA2D8-B54A-2B4F-984E-F730EA9A7B13}"/>
-    <hyperlink ref="F78" r:id="rId34" xr:uid="{41E60D16-2128-F340-8748-8847A2343F76}"/>
-    <hyperlink ref="F79" r:id="rId35" xr:uid="{064947FF-9F24-AE4D-9029-25A6B6508F10}"/>
-    <hyperlink ref="F81" r:id="rId36" xr:uid="{C7BB34F4-9457-8745-824B-E6E3D58D4533}"/>
-    <hyperlink ref="F82" r:id="rId37" xr:uid="{916DB7A9-247F-DF4C-80CB-F4C168DB703A}"/>
-    <hyperlink ref="F83" r:id="rId38" xr:uid="{8589C791-3742-D04A-B804-0BA1EB346F7C}"/>
-    <hyperlink ref="F84" r:id="rId39" xr:uid="{2A6688BC-16E4-9C40-9D4F-BA35A730A9FF}"/>
-    <hyperlink ref="F85" r:id="rId40" xr:uid="{A807858A-781A-B146-BB63-61525ABB2628}"/>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{C3A5E99E-D0B1-4D46-ADEB-0A57B7498AE3}"/>
+    <hyperlink ref="F25" r:id="rId2" xr:uid="{75F70002-3221-B24A-AE2E-6C4F19480D50}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{37D73035-61F7-D74C-87CA-EFA4B20832B8}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{B52C45E4-8021-814C-95C7-8918D60C265B}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{1D79EC75-BA0C-4546-AAAF-80FDFF73E73F}"/>
+    <hyperlink ref="F34" r:id="rId6" xr:uid="{0F98F172-ACCA-264A-B34B-B611924F1FC2}"/>
+    <hyperlink ref="F73" r:id="rId7" xr:uid="{3C4144B9-5422-7E4F-B062-F41E5E8AF6DC}"/>
+    <hyperlink ref="F13" r:id="rId8" xr:uid="{765A25ED-DD48-294C-AE40-6392AE888EAC}"/>
+    <hyperlink ref="F24" r:id="rId9" xr:uid="{0BB063F2-77D4-F747-A271-23658F542011}"/>
+    <hyperlink ref="F57" r:id="rId10" xr:uid="{4D8E368E-05CE-104E-9C12-C11DD60E5851}"/>
+    <hyperlink ref="F40" r:id="rId11" xr:uid="{F36FB0B6-5542-3C45-BD26-33EEB283819C}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{E8A15058-33EE-C841-9B0C-631D926C9C86}"/>
+    <hyperlink ref="F70" r:id="rId13" xr:uid="{F2E4C554-CC8D-6E48-B5ED-E0A335A8A907}"/>
+    <hyperlink ref="F50" r:id="rId14" xr:uid="{BC6D13BC-7BBC-AE43-A710-998DAE9273EC}"/>
+    <hyperlink ref="F72" r:id="rId15" xr:uid="{930B885A-D047-C24C-B8EB-6C0225A55DCB}"/>
+    <hyperlink ref="F76" r:id="rId16" xr:uid="{6995278F-70F2-9A47-91DF-3FE3B3AE01A6}"/>
+    <hyperlink ref="F49" r:id="rId17" xr:uid="{9E174051-796A-AD40-ABF7-5BE91A92C149}"/>
+    <hyperlink ref="F71" r:id="rId18" xr:uid="{99119875-7291-BC49-A36F-FB2420DA8FC2}"/>
+    <hyperlink ref="F74" r:id="rId19" xr:uid="{A0400BCA-E038-AD42-8527-39DF2E5FC376}"/>
+    <hyperlink ref="F58" r:id="rId20" xr:uid="{EC425C9D-2E08-BE48-A961-1D443B97EE19}"/>
+    <hyperlink ref="F62" r:id="rId21" xr:uid="{466BA372-33B3-A14F-A61E-9244E6529A90}"/>
+    <hyperlink ref="F41" r:id="rId22" xr:uid="{41F973EB-FA35-7A43-8A76-F3320C219913}"/>
+    <hyperlink ref="F83" r:id="rId23" xr:uid="{AAC62DE2-D98A-B140-AF5A-C5D625E5499E}"/>
+    <hyperlink ref="F39" r:id="rId24" xr:uid="{99CB87BC-15DF-1644-A07E-B49114A6F4A8}"/>
+    <hyperlink ref="F75" r:id="rId25" xr:uid="{FAF9C698-6A2A-0143-95AB-4D44BB62D68F}"/>
+    <hyperlink ref="F33" r:id="rId26" xr:uid="{37BF6940-3B93-1541-9FD0-F32C0D0EC565}"/>
+    <hyperlink ref="F65" r:id="rId27" xr:uid="{B4B4B032-5D70-DA4B-8F37-948952DD5C60}"/>
+    <hyperlink ref="F51" r:id="rId28" xr:uid="{A6E45E52-CA03-7A48-8DEF-8D25EE1AAA5D}"/>
+    <hyperlink ref="F98" r:id="rId29" xr:uid="{C79D7032-71D5-2646-854F-C8B3D69DF869}"/>
+    <hyperlink ref="F64" r:id="rId30" xr:uid="{9DEC38C0-28D6-F345-B114-6F8B270ACDBE}"/>
+    <hyperlink ref="F77" r:id="rId31" xr:uid="{25CF2624-9C86-9148-9AF6-B6ECC8C8ED16}"/>
+    <hyperlink ref="F30" r:id="rId32" xr:uid="{E335580F-71A7-6A46-8766-FD826ED18E58}"/>
+    <hyperlink ref="F21" r:id="rId33" xr:uid="{66DBA2D8-B54A-2B4F-984E-F730EA9A7B13}"/>
+    <hyperlink ref="F59" r:id="rId34" xr:uid="{41E60D16-2128-F340-8748-8847A2343F76}"/>
+    <hyperlink ref="F63" r:id="rId35" xr:uid="{064947FF-9F24-AE4D-9029-25A6B6508F10}"/>
+    <hyperlink ref="F86" r:id="rId36" xr:uid="{C7BB34F4-9457-8745-824B-E6E3D58D4533}"/>
+    <hyperlink ref="F87" r:id="rId37" xr:uid="{916DB7A9-247F-DF4C-80CB-F4C168DB703A}"/>
+    <hyperlink ref="F88" r:id="rId38" xr:uid="{8589C791-3742-D04A-B804-0BA1EB346F7C}"/>
+    <hyperlink ref="F5" r:id="rId39" xr:uid="{2A6688BC-16E4-9C40-9D4F-BA35A730A9FF}"/>
+    <hyperlink ref="F78" r:id="rId40" xr:uid="{A807858A-781A-B146-BB63-61525ABB2628}"/>
+    <hyperlink ref="F89" r:id="rId41" xr:uid="{23AEE77B-FDB2-7F45-84D3-A90F4319FCE9}"/>
+    <hyperlink ref="F90" r:id="rId42" xr:uid="{EC5AC733-1A52-9A40-A97E-25712DA79DEC}"/>
+    <hyperlink ref="F4" r:id="rId43" xr:uid="{9BF86C26-19F7-6743-BB5B-B8E5B789410F}"/>
+    <hyperlink ref="F52" r:id="rId44" xr:uid="{3CC4F879-E41A-B74F-99C7-F8AA35F32F44}"/>
+    <hyperlink ref="F91" r:id="rId45" xr:uid="{7E1134DF-4E39-7C4F-A4AF-06302E164545}"/>
+    <hyperlink ref="F53" r:id="rId46" xr:uid="{10DB354C-234E-F24C-B73B-9D0C932E908E}"/>
+    <hyperlink ref="F94" r:id="rId47" xr:uid="{1ED3DE1B-1D57-ED49-BDEE-A36A5F1F1C0D}"/>
+    <hyperlink ref="F93" r:id="rId48" xr:uid="{C77FEA32-6E54-EB40-A99D-F93037DA1FB9}"/>
+    <hyperlink ref="F96" r:id="rId49" xr:uid="{23CCC43C-7B1C-6242-AA21-B446B4E0B85A}"/>
+    <hyperlink ref="F61" r:id="rId50" xr:uid="{A699C994-7B8F-1E4E-AB36-05F625E65036}"/>
+    <hyperlink ref="F97" r:id="rId51" xr:uid="{DA16BB5B-9701-664D-A266-75407AA5819F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Actual Contracts.xlsx
+++ b/Data/Actual Contracts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Documents/GitHub/nba-free-agency-dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C0E5D0-7C98-9343-924A-08E74BE76FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA91537-0B9C-C64B-9E6F-F2D63BBCE98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{D5EB5F4A-B7C8-DC4C-BF95-EDD08D7C3D00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="239">
   <si>
     <t>player</t>
   </si>
@@ -683,6 +683,75 @@
   </si>
   <si>
     <t>https://fcbayern.com/basketball/en/news/2022-23/08/bonga-2024</t>
+  </si>
+  <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1565425087351865347</t>
+  </si>
+  <si>
+    <t>Andre Iguodala</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/warriors/news/warriors-re-sign-andre-iguodala-20220926</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1574131143678492676</t>
+  </si>
+  <si>
+    <t>Jordan Nwora</t>
+  </si>
+  <si>
+    <t>PJ Dozier</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DWolfsonKSTP/status/1571179071219843073</t>
+  </si>
+  <si>
+    <t>Kent Bazemore</t>
+  </si>
+  <si>
+    <t>Micah Potter</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1572348617247047683</t>
+  </si>
+  <si>
+    <t>Sharife Cooper</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1571984068044279808</t>
+  </si>
+  <si>
+    <t>Alize Johnson</t>
+  </si>
+  <si>
+    <t>Montrezl Harrell</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1567240776794443777</t>
+  </si>
+  <si>
+    <t>https://www.hoopsrumors.com/2022/08/contract-details-koloko-caboclo-silva-tillman-watanabe-spurs.html</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/157088835395194060</t>
+  </si>
+  <si>
+    <t>Joe Weiskamp</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1561880531247288322</t>
+  </si>
+  <si>
+    <t>Olivier Sarr</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1566389082766417920</t>
   </si>
 </sst>
 </file>
@@ -1084,11 +1153,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA8F1EC-D3D3-CE44-995D-42013DD36BD4}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2476,7 +2543,7 @@
         <v>4340000</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" ref="D66:D107" si="2">IF(B66=0,0,C66*0.05/((1.05)^B66-1)/123655000)</f>
+        <f t="shared" ref="D66:D119" si="2">IF(B66=0,0,C66*0.05/((1.05)^B66-1)/123655000)</f>
         <v>1.7120805230129849E-2</v>
       </c>
       <c r="E66" s="5">
@@ -3144,6 +3211,13 @@
       <c r="B98" s="2">
         <v>1</v>
       </c>
+      <c r="C98" s="3">
+        <v>2641682</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1363325381100626E-2</v>
+      </c>
       <c r="E98" s="5">
         <v>44747</v>
       </c>
@@ -3338,6 +3412,255 @@
       </c>
       <c r="F107" s="6" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="2">
+        <v>4</v>
+      </c>
+      <c r="C108" s="3">
+        <v>72000000</v>
+      </c>
+      <c r="D108" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13509240991022861</v>
+      </c>
+      <c r="E108" s="5">
+        <v>44805</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2905851</v>
+      </c>
+      <c r="D109" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3499664388823723E-2</v>
+      </c>
+      <c r="E109" s="5">
+        <v>44830</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3">
+        <v>6200000</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4458293185899784E-2</v>
+      </c>
+      <c r="E110" s="5">
+        <v>44829</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="5">
+        <v>44821</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2905851</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3499664388823723E-2</v>
+      </c>
+      <c r="E112" s="5">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="5">
+        <v>44824</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="5">
+        <v>44823</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="5">
+        <v>44802</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="D116" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0513407188174012E-2</v>
+      </c>
+      <c r="E116" s="5">
+        <v>44810</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3">
+        <v>2641482</v>
+      </c>
+      <c r="D117" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1361707977841555E-2</v>
+      </c>
+      <c r="E117" s="5">
+        <v>44820</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3">
+        <v>4400000</v>
+      </c>
+      <c r="D118" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7357498389993394E-2</v>
+      </c>
+      <c r="E118" s="5">
+        <v>44795</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="5">
+        <v>44808</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3396,6 +3719,11 @@
     <hyperlink ref="F96" r:id="rId49" xr:uid="{23CCC43C-7B1C-6242-AA21-B446B4E0B85A}"/>
     <hyperlink ref="F61" r:id="rId50" xr:uid="{A699C994-7B8F-1E4E-AB36-05F625E65036}"/>
     <hyperlink ref="F97" r:id="rId51" xr:uid="{DA16BB5B-9701-664D-A266-75407AA5819F}"/>
+    <hyperlink ref="F113" r:id="rId52" xr:uid="{E36E265A-2BC6-1A4C-B0DE-DDB786416474}"/>
+    <hyperlink ref="F114" r:id="rId53" xr:uid="{16E4B393-ECB0-F043-8D68-BE3ED8F5EA15}"/>
+    <hyperlink ref="F117" r:id="rId54" xr:uid="{31BF6769-F409-E141-AE9A-EBA50B7CE22D}"/>
+    <hyperlink ref="F118" r:id="rId55" xr:uid="{5CD872B5-1C41-4F44-AC8C-B4DCF283C762}"/>
+    <hyperlink ref="F119" r:id="rId56" xr:uid="{0DD50B2C-E139-D749-B68F-EEA637ED7200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Actual Contracts.xlsx
+++ b/Data/Actual Contracts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Documents/GitHub/nba-free-agency-dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C86664-3BB0-7343-9C30-C4FC1C9BC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D4E94-DFE4-544C-98D6-F3D2CC39E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{D5EB5F4A-B7C8-DC4C-BF95-EDD08D7C3D00}"/>
+    <workbookView xWindow="240" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{D5EB5F4A-B7C8-DC4C-BF95-EDD08D7C3D00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>player</t>
   </si>
@@ -53,6 +53,147 @@
   </si>
   <si>
     <t>Total Value</t>
+  </si>
+  <si>
+    <t>Naz Reid</t>
+  </si>
+  <si>
+    <t>Nikola Vučević</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShamsCharania/status/1674140663733010434</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1673067039278104579</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wojespn/status/1674570811611422722</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/cam-johnson-2023-free-agency</t>
+  </si>
+  <si>
+    <t>Coby White</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
+  </si>
+  <si>
+    <t>Herb Jones</t>
+  </si>
+  <si>
+    <t>Josh Okogie</t>
+  </si>
+  <si>
+    <t>Damion Lee</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Tre Jones</t>
+  </si>
+  <si>
+    <t>Julian Champagnie</t>
+  </si>
+  <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
+    <t>Seth Curry</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Bruce Brown</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
+    <t>Troy Brown Jr.</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Keita Bates-Diop</t>
+  </si>
+  <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
+    <t>Yuta Watanabe</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Max Strus</t>
   </si>
 </sst>
 </file>
@@ -454,17 +595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA8F1EC-D3D3-CE44-995D-42013DD36BD4}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -492,186 +633,830 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="D2" s="7"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F5" s="11"/>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2/(134000000*B2*(0.025*B2+0.975))</f>
+        <v>9.950248756218906E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45105</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>60000000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3/(134000000*B3*(0.025*B3+0.975))</f>
+        <v>0.14214641080312723</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45105</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>54000000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4/(134000000*B4*(0.025*B4+0.975))</f>
+        <v>0.1279317697228145</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45106</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>108000000</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5/(134000000*B5*(0.025*B5+0.975))</f>
+        <v>0.1874349184311003</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>33000000</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6/(134000000*B6*(0.025*B6+0.975))</f>
+        <v>7.8180525941719967E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="7"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>32000000</v>
+      </c>
+      <c r="D7" s="7">
+        <f>C7/(134000000*B7*(0.025*B7+0.975))</f>
+        <v>0.11649071714597743</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>126000000</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8/(134000000*B8*(0.025*B8+0.975))</f>
+        <v>0.29850746268656714</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="7"/>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9/(134000000*B9*(0.025*B9+0.975))</f>
+        <v>2.3880597014925373E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="7"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10250000</v>
+      </c>
+      <c r="D10" s="7">
+        <f>C10/(134000000*B10*(0.025*B10+0.975))</f>
+        <v>3.7313432835820892E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="7"/>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="D11" s="7">
+        <f>C11/(134000000*B11*(0.025*B11+0.975))</f>
+        <v>0.17355085039916696</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45107</v>
+      </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="7"/>
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>51000000</v>
+      </c>
+      <c r="D12" s="7">
+        <f>C12/(134000000*B12*(0.025*B12+0.975))</f>
+        <v>0.12082444918265814</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7700000</v>
+      </c>
+      <c r="D13" s="7">
+        <f>C13/(134000000*B13*(0.025*B13+0.975))</f>
+        <v>2.8030578813250818E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="7"/>
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>102000000</v>
+      </c>
+      <c r="D14" s="7">
+        <f>C14/(134000000*B14*(0.025*B14+0.975))</f>
+        <v>0.24164889836531628</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="7"/>
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="D15" s="7">
+        <f>C15/(134000000*B15*(0.025*B15+0.975))</f>
+        <v>3.2763014197306151E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>54000000</v>
+      </c>
+      <c r="D16" s="7">
+        <f>C16/(134000000*B16*(0.025*B16+0.975))</f>
+        <v>9.371745921555015E-2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45107</v>
+      </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="D17" s="7">
+        <f>C17/(134000000*B17*(0.025*B17+0.975))</f>
+        <v>1.7910447761194031E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <f>C18/(134000000*B18*(0.025*B18+0.975))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>160000000</v>
+      </c>
+      <c r="D19" s="7">
+        <f>C19/(134000000*B19*(0.025*B19+0.975))</f>
+        <v>0.21709633649932158</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="D20" s="7">
+        <f>C20/(134000000*B20*(0.025*B20+0.975))</f>
+        <v>5.8245358572988716E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="D21" s="7">
+        <f>C21/(134000000*B21*(0.025*B21+0.975))</f>
+        <v>7.2806698216235893E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12000000</v>
+      </c>
+      <c r="D22" s="7">
+        <f>C22/(134000000*B22*(0.025*B22+0.975))</f>
+        <v>2.0826102047900034E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="D24" s="7"/>
-      <c r="F24" s="11"/>
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>80000000</v>
+      </c>
+      <c r="D23" s="7">
+        <f>C23/(134000000*B23*(0.025*B23+0.975))</f>
+        <v>0.13884068031933355</v>
+      </c>
+      <c r="E23" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>102000000</v>
+      </c>
+      <c r="D24" s="4">
+        <f>C24/(134000000*B24*(0.025*B24+0.975))</f>
+        <v>0.17702186740715029</v>
+      </c>
+      <c r="E24" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="D25" s="7">
+        <f>C25/(134000000*B25*(0.025*B25+0.975))</f>
+        <v>1.6745540589734254E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="D26" s="7">
+        <f>C26/(134000000*B26*(0.025*B26+0.975))</f>
+        <v>4.7382136934375742E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="7"/>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="D27" s="4">
+        <f>C27/(134000000*B27*(0.025*B27+0.975))</f>
+        <v>6.1596778014688464E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9300000</v>
+      </c>
+      <c r="D28" s="4">
+        <f>C28/(134000000*B28*(0.025*B28+0.975))</f>
+        <v>3.3855114670549691E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>130000000</v>
+      </c>
+      <c r="D29" s="7">
+        <f>C29/(134000000*B29*(0.025*B29+0.975))</f>
+        <v>0.30798389007344229</v>
+      </c>
+      <c r="E29" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="D30" s="7">
+        <f>C30/(134000000*B30*(0.025*B30+0.975))</f>
+        <v>0.16381507098653075</v>
+      </c>
+      <c r="E30" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="D31" s="4">
+        <f>C31/(134000000*B31*(0.025*B31+0.975))</f>
+        <v>3.3582089552238806E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F33" s="11"/>
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>33000000</v>
+      </c>
+      <c r="D32" s="7">
+        <f>C32/(134000000*B32*(0.025*B32+0.975))</f>
+        <v>7.8180525941719967E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="D33" s="7">
+        <f>C33/(134000000*B33*(0.025*B33+0.975))</f>
+        <v>1.6745540589734254E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="D34" s="7">
+        <f>C34/(134000000*B34*(0.025*B34+0.975))</f>
+        <v>2.3662176920276664E-2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="7"/>
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="D35" s="7">
+        <f>C35/(134000000*B35*(0.025*B35+0.975))</f>
+        <v>2.1477975973789587E-2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="7"/>
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="D36" s="4">
+        <f>C36/(134000000*B36*(0.025*B36+0.975))</f>
+        <v>2.9122679286494358E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D37" s="7">
+        <f>C37/(134000000*B37*(0.025*B37+0.975))</f>
+        <v>3.6403349108117947E-2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>22000000</v>
+      </c>
+      <c r="D38" s="7">
+        <f>C38/(134000000*B38*(0.025*B38+0.975))</f>
+        <v>8.0087368037859485E-2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="D39" s="7"/>
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D39" s="4">
+        <f>C39/(134000000*B39*(0.025*B39+0.975))</f>
+        <v>1.8201674554058973E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>45107</v>
+      </c>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="7"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F41" s="11"/>
+      <c r="A40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D40" s="4">
+        <f>C40/(134000000*B40*(0.025*B40+0.975))</f>
+        <v>1.8201674554058973E-2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="D42" s="4">
+        <f>C42/(134000000*B42*(0.025*B42+0.975))</f>
+        <v>1.7910447761194031E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D43" s="7"/>
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>26000000</v>
+      </c>
+      <c r="D43" s="7">
+        <f>C43/(134000000*B43*(0.025*B43+0.975))</f>
+        <v>9.4648707681106656E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D44" s="7"/>
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
+        <v>63000000</v>
+      </c>
+      <c r="D44" s="4">
+        <f>C44/(134000000*B44*(0.025*B44+0.975))</f>
+        <v>0.10933703575147519</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D45" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D47" s="7"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D48" s="7"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D50" s="7"/>
-      <c r="F50" s="8"/>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F53" s="11"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D52" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D54" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D57" s="7"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F58" s="11"/>
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="7"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D60" s="7"/>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F61" s="11"/>
@@ -682,118 +1467,112 @@
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="4:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D66" s="7"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D68" s="7"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D70" s="7"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="4:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D71" s="7"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D72" s="7"/>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D73" s="7"/>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="4:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D74" s="7"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="4:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D76" s="7"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="4:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="4:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-    </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F83" s="11"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F81" s="11"/>
+    </row>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
       <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F91" s="11"/>
     </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F93" s="11"/>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F92" s="11"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F94" s="11"/>
     </row>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F95" s="11"/>
+    </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="6:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F97" s="11"/>
-    </row>
-    <row r="98" spans="6:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F98" s="11"/>
-    </row>
-    <row r="113" spans="6:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="6:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F114" s="11"/>
+    <row r="111" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F112" s="11"/>
+    </row>
+    <row r="115" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="6:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="6:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="6:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F119" s="11"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F98">
-    <sortCondition descending="1" ref="D1:D98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F96">
+    <sortCondition descending="1" ref="D1:D96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Actual Contracts.xlsx
+++ b/Data/Actual Contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Documents/GitHub/nba-free-agency-dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D4E94-DFE4-544C-98D6-F3D2CC39E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5B69D2-07BF-8349-889C-0529C95BD1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{D5EB5F4A-B7C8-DC4C-BF95-EDD08D7C3D00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>player</t>
   </si>
@@ -194,6 +194,126 @@
   </si>
   <si>
     <t>Max Strus</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/gabe-vincent-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/kyle-kuzma-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/jakob-poeltl-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/bruce-brown-2023-free-agency</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/dangelo-russell-2023-free-agency</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/brook-lopez-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/jerami-grant-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/khris-middleton-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/draymond-green-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/kyrie-irving-2023-free-agency</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/austin-reaves-2023-free-agency</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/dillon-brooks-rockets-agree-80-million-deal</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/russell-westbrook-2023-free-agency</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/donte-divincenzo-2023-free-agency</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/fred-vanvleet-2023-free-agency</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
+  </si>
+  <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/matisse-thybulle-offer-sheet</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/report-76ers-to-match-jazz-offer-sheet-re-sign-paul-reed</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/grant-williams-three-team-trade</t>
+  </si>
+  <si>
+    <t>Alex Len</t>
+  </si>
+  <si>
+    <t>Sandro Mamukelashvili</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/cavs-land-max-strus-sign-and-trade-deal-with-spurs-heat</t>
+  </si>
+  <si>
+    <t>https://www.nba.com/news/caris-levert-2023-free-agency</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
+    <t>Mo Wagner</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Cory Joseph</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
   </si>
 </sst>
 </file>
@@ -597,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA8F1EC-D3D3-CE44-995D-42013DD36BD4}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -634,65 +754,65 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>42000000</v>
-      </c>
-      <c r="D2" s="4">
+        <v>160000000</v>
+      </c>
+      <c r="D2" s="7">
         <f>C2/(134000000*B2*(0.025*B2+0.975))</f>
-        <v>9.950248756218906E-2</v>
+        <v>0.21709633649932158</v>
       </c>
       <c r="E2" s="5">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>60000000</v>
-      </c>
-      <c r="D3" s="4">
+        <v>130000000</v>
+      </c>
+      <c r="D3" s="7">
         <f>C3/(134000000*B3*(0.025*B3+0.975))</f>
-        <v>0.14214641080312723</v>
+        <v>0.30798389007344229</v>
       </c>
       <c r="E3" s="5">
-        <v>45105</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>8</v>
+        <v>45107</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>54000000</v>
-      </c>
-      <c r="D4" s="4">
+        <v>126000000</v>
+      </c>
+      <c r="D4" s="7">
         <f>C4/(134000000*B4*(0.025*B4+0.975))</f>
-        <v>0.1279317697228145</v>
+        <v>0.29850746268656714</v>
       </c>
       <c r="E4" s="5">
-        <v>45106</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
+        <v>45107</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -718,190 +838,215 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>33000000</v>
+        <v>102000000</v>
       </c>
       <c r="D6" s="7">
         <f>C6/(134000000*B6*(0.025*B6+0.975))</f>
-        <v>7.8180525941719967E-2</v>
+        <v>0.24164889836531628</v>
       </c>
       <c r="E6" s="5">
         <v>45107</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>32000000</v>
-      </c>
-      <c r="D7" s="7">
+        <v>102000000</v>
+      </c>
+      <c r="D7" s="4">
         <f>C7/(134000000*B7*(0.025*B7+0.975))</f>
-        <v>0.11649071714597743</v>
+        <v>0.17702186740715029</v>
       </c>
       <c r="E7" s="5">
         <v>45107</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>126000000</v>
+        <v>100000000</v>
       </c>
       <c r="D8" s="7">
         <f>C8/(134000000*B8*(0.025*B8+0.975))</f>
-        <v>0.29850746268656714</v>
+        <v>0.17355085039916696</v>
       </c>
       <c r="E8" s="5">
         <v>45107</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>3200000</v>
+        <v>80000000</v>
       </c>
       <c r="D9" s="7">
         <f>C9/(134000000*B9*(0.025*B9+0.975))</f>
-        <v>2.3880597014925373E-2</v>
+        <v>0.13884068031933355</v>
       </c>
       <c r="E9" s="5">
         <v>45107</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>10250000</v>
+        <v>80000000</v>
       </c>
       <c r="D10" s="7">
         <f>C10/(134000000*B10*(0.025*B10+0.975))</f>
-        <v>3.7313432835820892E-2</v>
+        <v>0.13884068031933355</v>
       </c>
       <c r="E10" s="5">
-        <v>45107</v>
+        <v>45108</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>100000000</v>
-      </c>
-      <c r="D11" s="7">
+        <v>63000000</v>
+      </c>
+      <c r="D11" s="4">
         <f>C11/(134000000*B11*(0.025*B11+0.975))</f>
-        <v>0.17355085039916696</v>
+        <v>0.10933703575147519</v>
       </c>
       <c r="E11" s="5">
-        <v>45107</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>51000000</v>
-      </c>
-      <c r="D12" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="D12" s="4">
         <f>C12/(134000000*B12*(0.025*B12+0.975))</f>
-        <v>0.12082444918265814</v>
+        <v>0.14214641080312723</v>
       </c>
       <c r="E12" s="5">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45105</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>7700000</v>
-      </c>
-      <c r="D13" s="7">
+        <v>56000000</v>
+      </c>
+      <c r="D13" s="4">
         <f>C13/(134000000*B13*(0.025*B13+0.975))</f>
-        <v>2.8030578813250818E-2</v>
+        <v>9.7188476223533493E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>45107</v>
+        <v>45108</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>22</v>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>102000000</v>
-      </c>
-      <c r="D14" s="7">
+        <v>54000000</v>
+      </c>
+      <c r="D14" s="4">
         <f>C14/(134000000*B14*(0.025*B14+0.975))</f>
-        <v>0.24164889836531628</v>
+        <v>0.1279317697228145</v>
       </c>
       <c r="E14" s="5">
-        <v>45107</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>45106</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>9000000</v>
+        <v>54000000</v>
       </c>
       <c r="D15" s="7">
         <f>C15/(134000000*B15*(0.025*B15+0.975))</f>
-        <v>3.2763014197306151E-2</v>
+        <v>9.371745921555015E-2</v>
       </c>
       <c r="E15" s="5">
         <v>45107</v>
       </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -909,430 +1054,451 @@
       <c r="C16" s="3">
         <v>54000000</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <f>C16/(134000000*B16*(0.025*B16+0.975))</f>
         <v>9.371745921555015E-2</v>
       </c>
-      <c r="E16" s="5">
-        <v>45107</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>2400000</v>
+        <v>51000000</v>
       </c>
       <c r="D17" s="7">
         <f>C17/(134000000*B17*(0.025*B17+0.975))</f>
-        <v>1.7910447761194031E-2</v>
+        <v>0.12082444918265814</v>
       </c>
       <c r="E17" s="5">
         <v>45107</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="D18" s="4">
         <f>C18/(134000000*B18*(0.025*B18+0.975))</f>
-        <v>0</v>
+        <v>8.6775425199583478E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>45108</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>160000000</v>
+        <v>48000000</v>
       </c>
       <c r="D19" s="7">
         <f>C19/(134000000*B19*(0.025*B19+0.975))</f>
-        <v>0.21709633649932158</v>
+        <v>0.17473607571896616</v>
       </c>
       <c r="E19" s="5">
-        <v>45107</v>
-      </c>
-      <c r="F19" s="11"/>
+        <v>45108</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>16000000</v>
+        <v>45000000</v>
       </c>
       <c r="D20" s="7">
         <f>C20/(134000000*B20*(0.025*B20+0.975))</f>
-        <v>5.8245358572988716E-2</v>
+        <v>0.16381507098653075</v>
       </c>
       <c r="E20" s="5">
         <v>45107</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>20000000</v>
-      </c>
-      <c r="D21" s="7">
+        <v>42000000</v>
+      </c>
+      <c r="D21" s="4">
         <f>C21/(134000000*B21*(0.025*B21+0.975))</f>
-        <v>7.2806698216235893E-2</v>
+        <v>9.950248756218906E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>45105</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>12000000</v>
+        <v>37000000</v>
       </c>
       <c r="D22" s="7">
         <f>C22/(134000000*B22*(0.025*B22+0.975))</f>
-        <v>2.0826102047900034E-2</v>
+        <v>0.13469239170003641</v>
       </c>
       <c r="E22" s="5">
-        <v>45107</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>45108</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
+      <c r="A23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>80000000</v>
+        <v>33000000</v>
       </c>
       <c r="D23" s="7">
         <f>C23/(134000000*B23*(0.025*B23+0.975))</f>
-        <v>0.13884068031933355</v>
+        <v>7.8180525941719967E-2</v>
       </c>
       <c r="E23" s="5">
         <v>45107</v>
       </c>
-      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>102000000</v>
-      </c>
-      <c r="D24" s="4">
+        <v>33000000</v>
+      </c>
+      <c r="D24" s="7">
         <f>C24/(134000000*B24*(0.025*B24+0.975))</f>
-        <v>0.17702186740715029</v>
+        <v>7.8180525941719967E-2</v>
       </c>
       <c r="E24" s="5">
         <v>45107</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>4600000</v>
-      </c>
-      <c r="D25" s="7">
+        <v>33000000</v>
+      </c>
+      <c r="D25" s="4">
         <f>C25/(134000000*B25*(0.025*B25+0.975))</f>
-        <v>1.6745540589734254E-2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>45107</v>
+        <v>7.8180525941719967E-2</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>20000000</v>
+        <v>32000000</v>
       </c>
       <c r="D26" s="7">
         <f>C26/(134000000*B26*(0.025*B26+0.975))</f>
-        <v>4.7382136934375742E-2</v>
+        <v>0.11649071714597743</v>
       </c>
       <c r="E26" s="5">
         <v>45107</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
         <v>26000000</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="7">
         <f>C27/(134000000*B27*(0.025*B27+0.975))</f>
-        <v>6.1596778014688464E-2</v>
+        <v>9.4648707681106656E-2</v>
       </c>
       <c r="E27" s="5">
         <v>45107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>9300000</v>
+        <v>26000000</v>
       </c>
       <c r="D28" s="4">
         <f>C28/(134000000*B28*(0.025*B28+0.975))</f>
-        <v>3.3855114670549691E-2</v>
+        <v>6.1596778014688464E-2</v>
       </c>
       <c r="E28" s="5">
         <v>45107</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>130000000</v>
+        <v>23000000</v>
       </c>
       <c r="D29" s="7">
         <f>C29/(134000000*B29*(0.025*B29+0.975))</f>
-        <v>0.30798389007344229</v>
-      </c>
-      <c r="E29" s="5">
-        <v>45107</v>
+        <v>5.4489457474532099E-2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>45000000</v>
+        <v>22000000</v>
       </c>
       <c r="D30" s="7">
         <f>C30/(134000000*B30*(0.025*B30+0.975))</f>
-        <v>0.16381507098653075</v>
+        <v>8.0087368037859485E-2</v>
       </c>
       <c r="E30" s="5">
         <v>45107</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3">
-        <v>4500000</v>
-      </c>
-      <c r="D31" s="4">
+        <v>20000000</v>
+      </c>
+      <c r="D31" s="7">
         <f>C31/(134000000*B31*(0.025*B31+0.975))</f>
-        <v>3.3582089552238806E-2</v>
+        <v>7.2806698216235893E-2</v>
       </c>
       <c r="E31" s="5">
         <v>45107</v>
       </c>
-      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>33000000</v>
+        <v>20000000</v>
       </c>
       <c r="D32" s="7">
         <f>C32/(134000000*B32*(0.025*B32+0.975))</f>
-        <v>7.8180525941719967E-2</v>
+        <v>4.7382136934375742E-2</v>
       </c>
       <c r="E32" s="5">
         <v>45107</v>
       </c>
-      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="3">
-        <v>4600000</v>
+        <v>16000000</v>
       </c>
       <c r="D33" s="7">
         <f>C33/(134000000*B33*(0.025*B33+0.975))</f>
-        <v>1.6745540589734254E-2</v>
+        <v>5.8245358572988716E-2</v>
       </c>
       <c r="E33" s="5">
         <v>45107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
       </c>
       <c r="C34" s="3">
-        <v>6500000</v>
-      </c>
-      <c r="D34" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="D34" s="4">
         <f>C34/(134000000*B34*(0.025*B34+0.975))</f>
-        <v>2.3662176920276664E-2</v>
+        <v>5.8245358572988716E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>45107</v>
-      </c>
+        <v>45108</v>
+      </c>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>5900000</v>
+        <v>12000000</v>
       </c>
       <c r="D35" s="7">
         <f>C35/(134000000*B35*(0.025*B35+0.975))</f>
-        <v>2.1477975973789587E-2</v>
+        <v>2.8429282160625444E-2</v>
       </c>
       <c r="E35" s="5">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>8000000</v>
-      </c>
-      <c r="D36" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="D36" s="7">
         <f>C36/(134000000*B36*(0.025*B36+0.975))</f>
-        <v>2.9122679286494358E-2</v>
+        <v>2.0826102047900034E-2</v>
       </c>
       <c r="E36" s="5">
         <v>45107</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
       </c>
       <c r="C37" s="3">
-        <v>10000000</v>
+        <v>10250000</v>
       </c>
       <c r="D37" s="7">
         <f>C37/(134000000*B37*(0.025*B37+0.975))</f>
-        <v>3.6403349108117947E-2</v>
+        <v>3.7313432835820892E-2</v>
       </c>
       <c r="E37" s="5">
         <v>45107</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
       </c>
       <c r="C38" s="3">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="D38" s="7">
         <f>C38/(134000000*B38*(0.025*B38+0.975))</f>
-        <v>8.0087368037859485E-2</v>
+        <v>3.6403349108117947E-2</v>
       </c>
       <c r="E38" s="5">
         <v>45107</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
       </c>
       <c r="C39" s="3">
-        <v>5000000</v>
+        <v>9300000</v>
       </c>
       <c r="D39" s="4">
         <f>C39/(134000000*B39*(0.025*B39+0.975))</f>
-        <v>1.8201674554058973E-2</v>
+        <v>3.3855114670549691E-2</v>
       </c>
       <c r="E39" s="5">
         <v>45107</v>
@@ -1341,134 +1507,461 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
       </c>
       <c r="C40" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="D40" s="4">
+        <v>9000000</v>
+      </c>
+      <c r="D40" s="7">
         <f>C40/(134000000*B40*(0.025*B40+0.975))</f>
-        <v>1.8201674554058973E-2</v>
+        <v>3.2763014197306151E-2</v>
       </c>
       <c r="E40" s="5">
         <v>45107</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="D41" s="4">
+        <f>C41/(134000000*B41*(0.025*B41+0.975))</f>
+        <v>3.2763014197306151E-2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>45108</v>
+      </c>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="3">
-        <v>2400000</v>
+        <v>8000000</v>
       </c>
       <c r="D42" s="4">
         <f>C42/(134000000*B42*(0.025*B42+0.975))</f>
-        <v>1.7910447761194031E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.9122679286494358E-2</v>
+      </c>
+      <c r="E42" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="3">
-        <v>26000000</v>
-      </c>
-      <c r="D43" s="7">
+        <v>8000000</v>
+      </c>
+      <c r="D43" s="4">
         <f>C43/(134000000*B43*(0.025*B43+0.975))</f>
-        <v>9.4648707681106656E-2</v>
+        <v>2.9122679286494358E-2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>45108</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="3">
-        <v>63000000</v>
-      </c>
-      <c r="D44" s="4">
+        <v>7700000</v>
+      </c>
+      <c r="D44" s="7">
         <f>C44/(134000000*B44*(0.025*B44+0.975))</f>
-        <v>0.10933703575147519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D45" s="7"/>
+        <v>2.8030578813250818E-2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6552719</v>
+      </c>
+      <c r="D45" s="4">
+        <f>C45/(134000000*B45*(0.025*B45+0.975))</f>
+        <v>2.3854091736439754E-2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>45109</v>
+      </c>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D48" s="7"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F50" s="11"/>
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="D46" s="7">
+        <f>C46/(134000000*B46*(0.025*B46+0.975))</f>
+        <v>2.3662176920276664E-2</v>
+      </c>
+      <c r="E46" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="D47" s="7">
+        <f>C47/(134000000*B47*(0.025*B47+0.975))</f>
+        <v>2.1477975973789587E-2</v>
+      </c>
+      <c r="E47" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5400000</v>
+      </c>
+      <c r="D48" s="4">
+        <f>C48/(134000000*B48*(0.025*B48+0.975))</f>
+        <v>1.9657808518383692E-2</v>
+      </c>
+      <c r="E48" s="5">
+        <v>45108</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5373575</v>
+      </c>
+      <c r="D49" s="7">
+        <f>C49/(134000000*B49*(0.025*B49+0.975))</f>
+        <v>1.956161266836549E-2</v>
+      </c>
+      <c r="E49" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D50" s="7">
+        <f>C50/(134000000*B50*(0.025*B50+0.975))</f>
+        <v>3.7313432835820892E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D51" s="4">
+        <f>C51/(134000000*B51*(0.025*B51+0.975))</f>
+        <v>1.8201674554058973E-2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>45107</v>
+      </c>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D52" s="7"/>
+      <c r="A52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D52" s="4">
+        <f>C52/(134000000*B52*(0.025*B52+0.975))</f>
+        <v>1.8201674554058973E-2</v>
+      </c>
+      <c r="E52" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="D53" s="7">
+        <f>C53/(134000000*B53*(0.025*B53+0.975))</f>
+        <v>1.6745540589734254E-2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>45107</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D55" s="7"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D58" s="7"/>
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="D54" s="7">
+        <f>C54/(134000000*B54*(0.025*B54+0.975))</f>
+        <v>1.6745540589734254E-2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="D55" s="4">
+        <f>C55/(134000000*B55*(0.025*B55+0.975))</f>
+        <v>3.3582089552238806E-2</v>
+      </c>
+      <c r="E55" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="D56" s="7">
+        <f>C56/(134000000*B56*(0.025*B56+0.975))</f>
+        <v>2.3880597014925373E-2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="D57" s="4">
+        <f>C57/(134000000*B57*(0.025*B57+0.975))</f>
+        <v>2.3880597014925373E-2</v>
+      </c>
+      <c r="E57" s="5">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="D58" s="4">
+        <f>C58/(134000000*B58*(0.025*B58+0.975))</f>
+        <v>2.3880597014925373E-2</v>
+      </c>
+      <c r="E58" s="5">
+        <v>45108</v>
+      </c>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3196448</v>
+      </c>
+      <c r="D59" s="4">
+        <f>C59/(134000000*B59*(0.025*B59+0.975))</f>
+        <v>2.3854089552238805E-2</v>
+      </c>
+      <c r="E59" s="5">
+        <v>45109</v>
+      </c>
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="D60" s="4">
+        <f>C60/(134000000*B60*(0.025*B60+0.975))</f>
+        <v>2.3134328358208955E-2</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45109</v>
+      </c>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="F63" s="11"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="D61" s="7">
+        <f>C61/(134000000*B61*(0.025*B61+0.975))</f>
+        <v>1.7910447761194031E-2</v>
+      </c>
+      <c r="E61" s="5">
+        <v>45107</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="D62" s="4">
+        <f>C62/(134000000*B62*(0.025*B62+0.975))</f>
+        <v>1.7910447761194031E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2346614</v>
+      </c>
+      <c r="D63" s="7">
+        <f>C63/(134000000*B63*(0.025*B63+0.975))</f>
+        <v>1.7512044776119402E-2</v>
+      </c>
+      <c r="E63" s="5">
+        <v>45109</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D64" s="7"/>
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D64" s="7">
+        <f>C64/(134000000*B64*(0.025*B64+0.975))</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>45108</v>
+      </c>
+      <c r="F64" s="8"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D67" s="7"/>
@@ -1571,8 +2064,8 @@
       <c r="F117" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F96">
-    <sortCondition descending="1" ref="D1:D96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F64">
+    <sortCondition descending="1" ref="C1:C64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
